--- a/biology/Zoologie/Askeptosauroidea/Askeptosauroidea.xlsx
+++ b/biology/Zoologie/Askeptosauroidea/Askeptosauroidea.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Askeptosauroidea forment une super-famille éteinte de « reptiles » marins de l'ordre des thalattosauriens. Ils constituent l'une des deux principales super-familles de Thalattosauria, l'autre étant les Thalattosauroidea. Les Askeptosauroidea ont vécu au cours du Trias, leurs fossiles sont connus en Chine et en Europe (Suisse et Italie)
-Les Askeptosauroidea incluent selon X. C. Wu et ses collègues en 2009 la famille des Askeptosauridae et un genre plus primitif appelé Endennasaurus[1],[2].
-Selon Zhao Li-Jun et ses collègues en 2013, ils regroupent directement les genres Miodentosaurus, Endennasaurus, Anshunsaurus et Askeptosaurus[3].
+Les Askeptosauroidea incluent selon X. C. Wu et ses collègues en 2009 la famille des Askeptosauridae et un genre plus primitif appelé Endennasaurus,.
+Selon Zhao Li-Jun et ses collègues en 2013, ils regroupent directement les genres Miodentosaurus, Endennasaurus, Anshunsaurus et Askeptosaurus.
 </t>
         </is>
       </c>
@@ -513,10 +525,12 @@
           <t>Classification</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">On trouvera ci-dessous est un cladogramme simplifié de X. C. Wu et de ses collègues de 2009 montrant les relations phylogénétiques des Askeptosauroidea[1] : 
-Un cladogramme différent réalisé par Zhao Li-Jun et ses collègues en 2013[3], montre la position des Askeptosauroidea et l'absence de la famille des Askeptosauridae:
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">On trouvera ci-dessous est un cladogramme simplifié de X. C. Wu et de ses collègues de 2009 montrant les relations phylogénétiques des Askeptosauroidea : 
+Un cladogramme différent réalisé par Zhao Li-Jun et ses collègues en 2013, montre la position des Askeptosauroidea et l'absence de la famille des Askeptosauridae:
 </t>
         </is>
       </c>
